--- a/data/case1/20/Q1_1.xlsx
+++ b/data/case1/20/Q1_1.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.094956318747222213</v>
+        <v>0.04517650658601724</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999655566683</v>
+        <v>-0.0059999999400304205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999728781432</v>
+        <v>0.039659189933367145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999493534091</v>
+        <v>-0.0079999999189439563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999769856345</v>
+        <v>-0.0029999999688801182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999818693937</v>
+        <v>-0.0019999999810274005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999370785631</v>
+        <v>-0.0099999999025199848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999374569271</v>
+        <v>-0.0099999999022961639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999845148331</v>
+        <v>-0.0019999999836399773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999864701579</v>
+        <v>0.014961780460239993</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999809371403</v>
+        <v>0.015181246545444615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999787492797</v>
+        <v>-0.0034999999698013262</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0048045375044569738</v>
+        <v>-0.0034999999655846992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999584545733</v>
+        <v>-0.0079999999201909588</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.03393597346003574</v>
+        <v>-0.00099999998922850608</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999936781698</v>
+        <v>-0.0019999999787141398</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999932007739</v>
+        <v>-0.0019999999781186162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999816977549</v>
+        <v>-0.0039999999579771739</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999767386107</v>
+        <v>-0.0039999999600270897</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999766262562</v>
+        <v>-0.0039999999567932321</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999767781347</v>
+        <v>-0.0039999999562656541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0097287569206283564</v>
+        <v>-0.0039999999558339994</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999652028393</v>
+        <v>-0.0049999999453680388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999876669783</v>
+        <v>-0.019999999789913403</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999874873886</v>
+        <v>-0.019999999786656453</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999790242811</v>
+        <v>0.074687587263193578</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999788613003</v>
+        <v>-0.0024999999743009482</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999810238478</v>
+        <v>-0.0019999999688931069</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999524226197</v>
+        <v>-0.0069999999124323864</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999652743607</v>
+        <v>-0.059999999382528646</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.014876679228544631</v>
+        <v>-0.0069999999113399269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.050602297564870113</v>
+        <v>0.024728083403855905</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999769335659</v>
+        <v>-0.0039999999422253296</v>
       </c>
     </row>
   </sheetData>
